--- a/Thibaux_modellen.xlsx
+++ b/Thibaux_modellen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht parameters" sheetId="7" r:id="rId1"/>
@@ -623,9 +623,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-813]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -847,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -884,9 +885,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -899,6 +897,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2065,8 +2075,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="400928432"/>
-        <c:axId val="400599952"/>
+        <c:axId val="230316824"/>
+        <c:axId val="230057032"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3503,11 +3513,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="6904608"/>
-        <c:axId val="400136384"/>
+        <c:axId val="230065992"/>
+        <c:axId val="230065608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="400928432"/>
+        <c:axId val="230316824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -3552,13 +3562,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400599952"/>
+        <c:crossAx val="230057032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="7"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="400599952"/>
+        <c:axId val="230057032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="150"/>
@@ -3602,13 +3612,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400928432"/>
+        <c:crossAx val="230316824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="400136384"/>
+        <c:axId val="230065608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="850"/>
@@ -3653,12 +3663,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6904608"/>
+        <c:crossAx val="230065992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="6904608"/>
+        <c:axId val="230065992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3668,7 +3678,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="400136384"/>
+        <c:crossAx val="230065608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3682,7 +3692,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4808,8 +4817,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="400919080"/>
-        <c:axId val="399602400"/>
+        <c:axId val="230803648"/>
+        <c:axId val="230808128"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -6246,11 +6255,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="401262264"/>
-        <c:axId val="401261872"/>
+        <c:axId val="230808896"/>
+        <c:axId val="230808512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="400919080"/>
+        <c:axId val="230803648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -6295,13 +6304,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399602400"/>
+        <c:crossAx val="230808128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="7"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="399602400"/>
+        <c:axId val="230808128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="150"/>
@@ -6345,13 +6354,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400919080"/>
+        <c:crossAx val="230803648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="401261872"/>
+        <c:axId val="230808512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -6396,12 +6405,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401262264"/>
+        <c:crossAx val="230808896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="401262264"/>
+        <c:axId val="230808896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6411,7 +6420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="401261872"/>
+        <c:crossAx val="230808512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6425,7 +6434,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7551,8 +7559,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="401263048"/>
-        <c:axId val="401263440"/>
+        <c:axId val="229377704"/>
+        <c:axId val="229378096"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -8989,11 +8997,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="401264224"/>
-        <c:axId val="401263832"/>
+        <c:axId val="229378880"/>
+        <c:axId val="229378488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="401263048"/>
+        <c:axId val="229377704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -9038,13 +9046,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401263440"/>
+        <c:crossAx val="229378096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="7"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="401263440"/>
+        <c:axId val="229378096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="150"/>
@@ -9088,13 +9096,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401263048"/>
+        <c:crossAx val="229377704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="401263832"/>
+        <c:axId val="229378488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -9139,12 +9147,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401264224"/>
+        <c:crossAx val="229378880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="401264224"/>
+        <c:axId val="229378880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9154,7 +9162,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="401263832"/>
+        <c:crossAx val="229378488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10293,8 +10301,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="401265008"/>
-        <c:axId val="401265400"/>
+        <c:axId val="429949824"/>
+        <c:axId val="429950216"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -11731,11 +11739,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="402042520"/>
-        <c:axId val="402042128"/>
+        <c:axId val="429951000"/>
+        <c:axId val="429950608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="401265008"/>
+        <c:axId val="429949824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -11780,13 +11788,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401265400"/>
+        <c:crossAx val="429950216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="7"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="401265400"/>
+        <c:axId val="429950216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="150"/>
@@ -11830,13 +11838,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401265008"/>
+        <c:crossAx val="429949824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="402042128"/>
+        <c:axId val="429950608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1500"/>
@@ -11881,12 +11889,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402042520"/>
+        <c:crossAx val="429951000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="402042520"/>
+        <c:axId val="429951000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11896,7 +11904,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="402042128"/>
+        <c:crossAx val="429950608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13035,8 +13043,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="402045264"/>
-        <c:axId val="402045656"/>
+        <c:axId val="429953352"/>
+        <c:axId val="430031304"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -14473,11 +14481,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="402333656"/>
-        <c:axId val="402333264"/>
+        <c:axId val="430032088"/>
+        <c:axId val="430031696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="402045264"/>
+        <c:axId val="429953352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -14522,13 +14530,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402045656"/>
+        <c:crossAx val="430031304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="7"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="402045656"/>
+        <c:axId val="430031304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="150"/>
@@ -14572,13 +14580,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402045264"/>
+        <c:crossAx val="429953352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="402333264"/>
+        <c:axId val="430031696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -14623,12 +14631,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402333656"/>
+        <c:crossAx val="430032088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="402333656"/>
+        <c:axId val="430032088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14638,7 +14646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="402333264"/>
+        <c:crossAx val="430031696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17527,7 +17535,7 @@
         <xdr:cNvPr id="2" name="Grafiek 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5A196B-E965-4F0D-987F-73122C6A09DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A5A196B-E965-4F0D-987F-73122C6A09DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17564,7 +17572,7 @@
         <cdr:cNvPr id="3" name="Rechte verbindingslijn 2">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04365592-AC70-4EC7-9504-79FD7BAE2366}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04365592-AC70-4EC7-9504-79FD7BAE2366}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -17617,7 +17625,7 @@
         <cdr:cNvPr id="4" name="Rechte verbindingslijn 3">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3932D5A3-95E3-4302-9E12-C0F839C5C352}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3932D5A3-95E3-4302-9E12-C0F839C5C352}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -17675,7 +17683,7 @@
         <cdr:cNvPr id="3" name="Rechte verbindingslijn 2">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04365592-AC70-4EC7-9504-79FD7BAE2366}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04365592-AC70-4EC7-9504-79FD7BAE2366}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -17728,7 +17736,7 @@
         <cdr:cNvPr id="4" name="Rechte verbindingslijn 3">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3932D5A3-95E3-4302-9E12-C0F839C5C352}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3932D5A3-95E3-4302-9E12-C0F839C5C352}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -17790,7 +17798,7 @@
         <xdr:cNvPr id="2" name="Grafiek 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F0F9AF-0C5D-4589-94A2-6264487B3DC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60F0F9AF-0C5D-4589-94A2-6264487B3DC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17829,7 +17837,7 @@
         <cdr:cNvPr id="3" name="Rechte verbindingslijn 2">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04365592-AC70-4EC7-9504-79FD7BAE2366}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04365592-AC70-4EC7-9504-79FD7BAE2366}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -17882,7 +17890,7 @@
         <cdr:cNvPr id="4" name="Rechte verbindingslijn 3">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3932D5A3-95E3-4302-9E12-C0F839C5C352}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3932D5A3-95E3-4302-9E12-C0F839C5C352}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -17944,7 +17952,7 @@
         <xdr:cNvPr id="2" name="Grafiek 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76AAF638-F028-4F16-87B9-5D30904F1DB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76AAF638-F028-4F16-87B9-5D30904F1DB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17983,7 +17991,7 @@
         <cdr:cNvPr id="3" name="Rechte verbindingslijn 2">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04365592-AC70-4EC7-9504-79FD7BAE2366}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04365592-AC70-4EC7-9504-79FD7BAE2366}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -18036,7 +18044,7 @@
         <cdr:cNvPr id="4" name="Rechte verbindingslijn 3">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3932D5A3-95E3-4302-9E12-C0F839C5C352}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3932D5A3-95E3-4302-9E12-C0F839C5C352}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -18098,7 +18106,7 @@
         <xdr:cNvPr id="2" name="Grafiek 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE1E66C-C177-4259-A250-ECB6F4B180F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FE1E66C-C177-4259-A250-ECB6F4B180F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18137,7 +18145,7 @@
         <cdr:cNvPr id="3" name="Rechte verbindingslijn 2">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04365592-AC70-4EC7-9504-79FD7BAE2366}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04365592-AC70-4EC7-9504-79FD7BAE2366}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -18190,7 +18198,7 @@
         <cdr:cNvPr id="4" name="Rechte verbindingslijn 3">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3932D5A3-95E3-4302-9E12-C0F839C5C352}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3932D5A3-95E3-4302-9E12-C0F839C5C352}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -18252,7 +18260,7 @@
         <xdr:cNvPr id="2" name="Grafiek 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19172E5A-F345-474A-B6A2-14FA1EE5043C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19172E5A-F345-474A-B6A2-14FA1EE5043C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18612,8 +18620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18673,19 +18681,19 @@
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="25">
         <f>Edwards!$O$5</f>
         <v>9.5409797365209261</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="25">
         <f>Edwards!$O$6</f>
         <v>7.8124129634527657</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="25">
         <f>Edwards!$O$3</f>
         <v>0.63353976887658647</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="24">
         <f>Edwards!$O$4</f>
         <v>0.71630400636365332</v>
       </c>
@@ -18713,11 +18721,11 @@
         <f>Edwards!$R$5</f>
         <v>4.826979950459255</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="18">
         <f xml:space="preserve"> (Tabel1[[#This Row],[t1]]*Tabel1[[#This Row],[t2]]/(Tabel1[[#This Row],[t1]]-Tabel1[[#This Row],[t2]]))*LN((Tabel1[[#This Row],[k2]]*Tabel1[[#This Row],[t1]])/(Tabel1[[#This Row],[k1]]*Tabel1[[#This Row],[t2]]))</f>
         <v>13.913704712233676</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="18">
         <f xml:space="preserve"> (Tabel1[[#This Row],[t1]]*Tabel1[[#This Row],[t2]]/(Tabel1[[#This Row],[t1]]-Tabel1[[#This Row],[t2]]))*LN(Tabel1[[#This Row],[k2]]/Tabel1[[#This Row],[k1]])</f>
         <v>5.2945167666483632</v>
       </c>
@@ -18726,19 +18734,19 @@
       <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="25">
         <f>Banister!$O$5</f>
         <v>12.847726222271673</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="25">
         <f>Banister!$O$6</f>
         <v>9.6037337781487171</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="25">
         <f>Banister!$O$3</f>
         <v>0.69094612192605664</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="24">
         <f>Banister!$O$4</f>
         <v>0.79439067072495695</v>
       </c>
@@ -18766,11 +18774,11 @@
         <f>Banister!$R$5</f>
         <v>4.3137375402883062</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="18">
         <f xml:space="preserve"> (Tabel1[[#This Row],[t1]]*Tabel1[[#This Row],[t2]]/(Tabel1[[#This Row],[t1]]-Tabel1[[#This Row],[t2]]))*LN((Tabel1[[#This Row],[k2]]*Tabel1[[#This Row],[t1]])/(Tabel1[[#This Row],[k1]]*Tabel1[[#This Row],[t2]]))</f>
         <v>16.3752661190967</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="18">
         <f xml:space="preserve"> (Tabel1[[#This Row],[t1]]*Tabel1[[#This Row],[t2]]/(Tabel1[[#This Row],[t1]]-Tabel1[[#This Row],[t2]]))*LN(Tabel1[[#This Row],[k2]]/Tabel1[[#This Row],[k1]])</f>
         <v>5.306434968747034</v>
       </c>
@@ -18779,19 +18787,19 @@
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="25">
         <f>Lucia!$O$5</f>
         <v>11.09960739611345</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="25">
         <f>Lucia!$O$6</f>
         <v>8.1490413029616136</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="25">
         <f>Lucia!$O$3</f>
         <v>0.64503582914856405</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="24">
         <f>Lucia!$O$4</f>
         <v>0.76823366148257521</v>
       </c>
@@ -18819,11 +18827,11 @@
         <f>Lucia!$R$5</f>
         <v>4.4724836654085696</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="18">
         <f xml:space="preserve"> (Tabel1[[#This Row],[t1]]*Tabel1[[#This Row],[t2]]/(Tabel1[[#This Row],[t1]]-Tabel1[[#This Row],[t2]]))*LN((Tabel1[[#This Row],[k2]]*Tabel1[[#This Row],[t1]])/(Tabel1[[#This Row],[k1]]*Tabel1[[#This Row],[t2]]))</f>
         <v>14.831067985195283</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="18">
         <f xml:space="preserve"> (Tabel1[[#This Row],[t1]]*Tabel1[[#This Row],[t2]]/(Tabel1[[#This Row],[t1]]-Tabel1[[#This Row],[t2]]))*LN(Tabel1[[#This Row],[k2]]/Tabel1[[#This Row],[k1]])</f>
         <v>5.3582204115330709</v>
       </c>
@@ -18832,19 +18840,19 @@
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="25">
         <f>sRPE!$O$5</f>
         <v>8.519392022399753</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="25">
         <f>sRPE!$O$6</f>
         <v>7.5062759231770775</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="25">
         <f>sRPE!$O$3</f>
         <v>0.62277431687392371</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="24">
         <f>sRPE!$O$4</f>
         <v>0.67806621933802247</v>
       </c>
@@ -18872,11 +18880,11 @@
         <f>sRPE!$R$5</f>
         <v>4.6824770964513052</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="18">
         <f xml:space="preserve"> (Tabel1[[#This Row],[t1]]*Tabel1[[#This Row],[t2]]/(Tabel1[[#This Row],[t1]]-Tabel1[[#This Row],[t2]]))*LN((Tabel1[[#This Row],[k2]]*Tabel1[[#This Row],[t1]])/(Tabel1[[#This Row],[k1]]*Tabel1[[#This Row],[t2]]))</f>
         <v>13.360587858808483</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="18">
         <f xml:space="preserve"> (Tabel1[[#This Row],[t1]]*Tabel1[[#This Row],[t2]]/(Tabel1[[#This Row],[t1]]-Tabel1[[#This Row],[t2]]))*LN(Tabel1[[#This Row],[k2]]/Tabel1[[#This Row],[k1]])</f>
         <v>5.3691201520879392</v>
       </c>
@@ -18885,19 +18893,19 @@
       <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="26">
         <f>TSS!$O$5</f>
         <v>11.232056927040157</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="26">
         <f>TSS!$O$6</f>
         <v>6.3273830267014546</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="26">
         <f>TSS!$O$3</f>
         <v>0.59262774739828983</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="27">
         <f>TSS!$O$4</f>
         <v>0.83065594320770098</v>
       </c>
@@ -18938,51 +18946,51 @@
       <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <f>AVERAGE(B4:B8)</f>
         <v>10.64795246086919</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <f t="shared" ref="C9:M9" si="0">AVERAGE(C4:C8)</f>
         <v>7.8797693988883255</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <f t="shared" si="0"/>
         <v>0.63698475684468403</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <f t="shared" si="0"/>
         <v>0.75753010022338174</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <f t="shared" si="0"/>
         <v>548.88744935782313</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <f t="shared" si="0"/>
         <v>7.0565397314157945</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="18">
         <f t="shared" si="0"/>
         <v>0.86329204739406451</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="18">
         <f t="shared" si="0"/>
         <v>0.72658409478812924</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="20">
         <f t="shared" si="0"/>
         <v>1.9813433992493732</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="18">
         <f t="shared" si="0"/>
         <v>4.4972068809245247</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="18">
         <f t="shared" si="0"/>
         <v>14.337781858025158</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="18">
         <f t="shared" si="0"/>
         <v>5.2441769483773824</v>
       </c>
@@ -18991,15 +18999,15 @@
       <c r="A10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <f>_xlfn.STDEV.P(B4:B8)</f>
         <v>1.4926709591838767</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <f t="shared" ref="C10:M10" si="1">_xlfn.STDEV.P(C4:C8)</f>
         <v>1.0581586132170342</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <f t="shared" si="1"/>
         <v>3.2118522755500159E-2</v>
       </c>
@@ -19007,35 +19015,35 @@
         <f t="shared" si="1"/>
         <v>5.4469727324068587E-2</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <f t="shared" si="1"/>
         <v>48.757989480463486</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="18">
         <f t="shared" si="1"/>
         <v>0.32265469387517809</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="18">
         <f t="shared" si="1"/>
         <v>1.4407610632749191E-2</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="18">
         <f t="shared" si="1"/>
         <v>2.8815221265498382E-2</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="18">
         <f t="shared" si="1"/>
         <v>0.27810046545833245</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="18">
         <f t="shared" si="1"/>
         <v>0.23302572232387955</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="18">
         <f t="shared" si="1"/>
         <v>1.1666354525322422</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="18">
         <f t="shared" si="1"/>
         <v>0.17812273215871158</v>
       </c>
@@ -19138,7 +19146,7 @@
         <v>43175</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="22"/>
+      <c r="D2" s="21"/>
       <c r="E2">
         <v>0</v>
       </c>
@@ -19194,7 +19202,7 @@
         <v>43176</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="22"/>
+      <c r="D3" s="21"/>
       <c r="E3">
         <f>(E2*EXP(-1/$O$5)+C3)</f>
         <v>0</v>
@@ -19263,7 +19271,7 @@
         <v>43177</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="22"/>
+      <c r="D4" s="21"/>
       <c r="E4">
         <f t="shared" ref="E4:E67" si="4">(E3*EXP(-1/$O$5)+C4)</f>
         <v>0</v>
@@ -19334,7 +19342,7 @@
       <c r="C5" s="3">
         <v>175</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="21"/>
       <c r="E5">
         <f t="shared" si="4"/>
         <v>175</v>
@@ -19394,7 +19402,7 @@
         <v>43179</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="22"/>
+      <c r="D6" s="21"/>
       <c r="E6">
         <f t="shared" si="4"/>
         <v>157.58656634234742</v>
@@ -19458,7 +19466,7 @@
         <v>43180</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="22"/>
+      <c r="D7" s="21"/>
       <c r="E7">
         <f t="shared" si="4"/>
         <v>141.90586223754894</v>
@@ -19507,7 +19515,7 @@
       <c r="C8" s="3">
         <v>194.3</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="21"/>
       <c r="E8">
         <f t="shared" si="4"/>
         <v>322.08547185066016</v>
@@ -19561,7 +19569,7 @@
         <f>42+188.93</f>
         <v>230.93</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>229</v>
       </c>
       <c r="E9">
@@ -19610,7 +19618,7 @@
         <v>43183</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="22"/>
+      <c r="D10" s="21"/>
       <c r="E10">
         <f t="shared" si="4"/>
         <v>469.1273277862515</v>
@@ -19657,7 +19665,7 @@
         <v>43184</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="22"/>
+      <c r="D11" s="21"/>
       <c r="E11">
         <f t="shared" si="4"/>
         <v>422.44665578969307</v>
@@ -19706,7 +19714,7 @@
       <c r="C12" s="3">
         <v>157.13</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="21"/>
       <c r="E12">
         <f t="shared" si="4"/>
         <v>537.54095970688718</v>
@@ -19753,7 +19761,7 @@
         <v>43186</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="22"/>
+      <c r="D13" s="21"/>
       <c r="E13">
         <f t="shared" si="4"/>
         <v>484.05276633473414</v>
@@ -19802,7 +19810,7 @@
       <c r="C14" s="3">
         <v>153.5</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="21"/>
       <c r="E14">
         <f t="shared" si="4"/>
         <v>589.38693357260217</v>
@@ -19849,7 +19857,7 @@
         <v>43188</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="22"/>
+      <c r="D15" s="21"/>
       <c r="E15">
         <f t="shared" si="4"/>
         <v>530.73978919286617</v>
@@ -19899,7 +19907,7 @@
         <f>39+187.5</f>
         <v>226.5</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>243</v>
       </c>
       <c r="E16">
@@ -19948,7 +19956,7 @@
         <v>43190</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="22"/>
+      <c r="D17" s="21"/>
       <c r="E17">
         <f t="shared" si="4"/>
         <v>634.3339696327447</v>
@@ -19995,7 +20003,7 @@
         <v>43191</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="22"/>
+      <c r="D18" s="21"/>
       <c r="E18">
         <f t="shared" si="4"/>
         <v>571.21435536420063</v>
@@ -20044,7 +20052,7 @@
       <c r="C19" s="3">
         <v>158.35</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="21"/>
       <c r="E19">
         <f t="shared" si="4"/>
         <v>672.72547947029614</v>
@@ -20091,7 +20099,7 @@
         <v>43193</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="22"/>
+      <c r="D20" s="21"/>
       <c r="E20">
         <f t="shared" si="4"/>
         <v>605.78570514704734</v>
@@ -20140,7 +20148,7 @@
       <c r="C21" s="3">
         <v>146.13</v>
       </c>
-      <c r="D21" s="22"/>
+      <c r="D21" s="21"/>
       <c r="E21">
         <f t="shared" si="4"/>
         <v>691.63679550514792</v>
@@ -20187,7 +20195,7 @@
         <v>43195</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="22"/>
+      <c r="D22" s="21"/>
       <c r="E22">
         <f t="shared" si="4"/>
         <v>622.81524434103176</v>
@@ -20237,7 +20245,7 @@
         <f>37+149.58</f>
         <v>186.58</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>249</v>
       </c>
       <c r="E23">
@@ -20286,7 +20294,7 @@
         <v>43197</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="22"/>
+      <c r="D24" s="21"/>
       <c r="E24">
         <f t="shared" si="4"/>
         <v>673.04934749176584</v>
@@ -20333,7 +20341,7 @@
         <v>43198</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="22"/>
+      <c r="D25" s="21"/>
       <c r="E25">
         <f t="shared" si="4"/>
         <v>606.07734657248454</v>
@@ -20382,7 +20390,7 @@
       <c r="C26" s="3">
         <v>150.47999999999999</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="21"/>
       <c r="E26">
         <f t="shared" si="4"/>
         <v>696.24941705279275</v>
@@ -20429,7 +20437,7 @@
         <v>43200</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="22"/>
+      <c r="D27" s="21"/>
       <c r="E27">
         <f t="shared" si="4"/>
         <v>626.96888543548937</v>
@@ -20478,7 +20486,7 @@
       <c r="C28" s="3">
         <v>147.63</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="21"/>
       <c r="E28">
         <f t="shared" si="4"/>
         <v>712.21213633867058</v>
@@ -20525,7 +20533,7 @@
         <v>43202</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="22"/>
+      <c r="D29" s="21"/>
       <c r="E29">
         <f t="shared" si="4"/>
         <v>641.34322898833648</v>
@@ -20575,7 +20583,7 @@
         <f>38+168.02</f>
         <v>206.02</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>253</v>
       </c>
       <c r="E30">
@@ -20624,7 +20632,7 @@
         <v>43204</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="22"/>
+      <c r="D31" s="21"/>
       <c r="E31">
         <f t="shared" si="4"/>
         <v>705.57913312945198</v>
@@ -20671,7 +20679,7 @@
         <v>43205</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="22"/>
+      <c r="D32" s="21"/>
       <c r="E32">
         <f t="shared" si="4"/>
         <v>635.37024498674486</v>
@@ -20720,7 +20728,7 @@
       <c r="C33" s="3">
         <v>144.69999999999999</v>
       </c>
-      <c r="D33" s="22"/>
+      <c r="D33" s="21"/>
       <c r="E33">
         <f t="shared" si="4"/>
         <v>716.84751579175531</v>
@@ -20767,7 +20775,7 @@
         <v>43207</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="22"/>
+      <c r="D34" s="21"/>
       <c r="E34">
         <f t="shared" si="4"/>
         <v>645.517363455225</v>
@@ -20816,7 +20824,7 @@
       <c r="C35" s="3">
         <v>140.62</v>
       </c>
-      <c r="D35" s="22"/>
+      <c r="D35" s="21"/>
       <c r="E35">
         <f t="shared" si="4"/>
         <v>721.90494183585145</v>
@@ -20863,7 +20871,7 @@
         <v>43209</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="22"/>
+      <c r="D36" s="21"/>
       <c r="E36">
         <f t="shared" si="4"/>
         <v>650.07154862562197</v>
@@ -20913,7 +20921,7 @@
         <f>38+168.57</f>
         <v>206.57</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="21">
         <v>272</v>
       </c>
       <c r="E37">
@@ -20962,7 +20970,7 @@
         <v>43211</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="22"/>
+      <c r="D38" s="21"/>
       <c r="E38">
         <f t="shared" si="4"/>
         <v>713.15211790375042</v>
@@ -21009,7 +21017,7 @@
         <v>43212</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="22"/>
+      <c r="D39" s="21"/>
       <c r="E39">
         <f t="shared" si="4"/>
         <v>642.18967737271385</v>
@@ -21058,7 +21066,7 @@
       <c r="C40" s="3">
         <v>157</v>
       </c>
-      <c r="D40" s="22"/>
+      <c r="D40" s="21"/>
       <c r="E40">
         <f t="shared" si="4"/>
         <v>735.28837827237624</v>
@@ -21105,7 +21113,7 @@
         <v>43214</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="22"/>
+      <c r="D41" s="21"/>
       <c r="E41">
         <f t="shared" si="4"/>
         <v>662.12326173358201</v>
@@ -21154,7 +21162,7 @@
       <c r="C42" s="3">
         <v>155.22</v>
       </c>
-      <c r="D42" s="22"/>
+      <c r="D42" s="21"/>
       <c r="E42">
         <f t="shared" si="4"/>
         <v>751.45846463994621</v>
@@ -21201,7 +21209,7 @@
         <v>43216</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="22"/>
+      <c r="D43" s="21"/>
       <c r="E43">
         <f t="shared" si="4"/>
         <v>676.68433823715088</v>
@@ -21251,7 +21259,7 @@
         <f>36+164.68</f>
         <v>200.68</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="21">
         <v>281</v>
       </c>
       <c r="E44">
@@ -21300,7 +21308,7 @@
         <v>43218</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="22"/>
+      <c r="D45" s="21"/>
       <c r="E45">
         <f t="shared" si="4"/>
         <v>729.42826636440213</v>
@@ -21347,7 +21355,7 @@
         <v>43219</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="22"/>
+      <c r="D46" s="21"/>
       <c r="E46">
         <f t="shared" si="4"/>
         <v>656.84626222524184</v>
@@ -21396,7 +21404,7 @@
       <c r="C47" s="3">
         <v>146.75</v>
       </c>
-      <c r="D47" s="22"/>
+      <c r="D47" s="21"/>
       <c r="E47">
         <f t="shared" si="4"/>
         <v>738.23655473646284</v>
@@ -21443,7 +21451,7 @@
         <v>43221</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="22"/>
+      <c r="D48" s="21"/>
       <c r="E48">
         <f t="shared" si="4"/>
         <v>664.7780789104205</v>
@@ -21492,7 +21500,7 @@
       <c r="C49" s="3">
         <v>147.15</v>
       </c>
-      <c r="D49" s="22"/>
+      <c r="D49" s="21"/>
       <c r="E49">
         <f t="shared" si="4"/>
         <v>745.77911334374426</v>
@@ -21539,7 +21547,7 @@
         <v>43223</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="22"/>
+      <c r="D50" s="21"/>
       <c r="E50">
         <f t="shared" si="4"/>
         <v>671.57011269531995</v>
@@ -21589,7 +21597,7 @@
         <f>38+172.48</f>
         <v>210.48</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="21">
         <v>277</v>
       </c>
       <c r="E51">
@@ -21638,7 +21646,7 @@
         <v>43225</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="22"/>
+      <c r="D52" s="21"/>
       <c r="E52">
         <f t="shared" si="4"/>
         <v>734.10603644991181</v>
@@ -21685,7 +21693,7 @@
         <v>43226</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="22"/>
+      <c r="D53" s="21"/>
       <c r="E53">
         <f t="shared" si="4"/>
         <v>661.05856923046701</v>
@@ -21734,7 +21742,7 @@
       <c r="C54" s="3">
         <v>140.18</v>
       </c>
-      <c r="D54" s="22"/>
+      <c r="D54" s="21"/>
       <c r="E54">
         <f t="shared" si="4"/>
         <v>735.45971472122437</v>
@@ -21781,7 +21789,7 @@
         <v>43228</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="22"/>
+      <c r="D55" s="21"/>
       <c r="E55">
         <f t="shared" si="4"/>
         <v>662.27754929165781</v>
@@ -21830,7 +21838,7 @@
       <c r="C56" s="3">
         <v>158.16999999999999</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="D56" s="21"/>
       <c r="E56">
         <f t="shared" si="4"/>
         <v>754.54739976284043</v>
@@ -21877,7 +21885,7 @@
         <v>43230</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="22"/>
+      <c r="D57" s="21"/>
       <c r="E57">
         <f t="shared" si="4"/>
         <v>679.46590783527188</v>
@@ -21927,7 +21935,7 @@
         <f>38+160.68</f>
         <v>198.68</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="21">
         <v>288</v>
       </c>
       <c r="E58">
@@ -21976,7 +21984,7 @@
         <v>43232</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="22"/>
+      <c r="D59" s="21"/>
       <c r="E59">
         <f t="shared" si="4"/>
         <v>729.88282579017596</v>
@@ -22023,7 +22031,7 @@
         <v>43233</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="22"/>
+      <c r="D60" s="21"/>
       <c r="E60">
         <f t="shared" si="4"/>
         <v>657.25559056299176</v>
@@ -22070,7 +22078,7 @@
         <v>43234</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="22"/>
+      <c r="D61" s="21"/>
       <c r="E61">
         <f t="shared" si="4"/>
         <v>591.85515272076361</v>
@@ -22117,7 +22125,7 @@
         <v>43235</v>
       </c>
       <c r="C62" s="3"/>
-      <c r="D62" s="22"/>
+      <c r="D62" s="21"/>
       <c r="E62">
         <f t="shared" si="4"/>
         <v>532.96240736737582</v>
@@ -22164,7 +22172,7 @@
         <v>43236</v>
       </c>
       <c r="C63" s="3"/>
-      <c r="D63" s="22"/>
+      <c r="D63" s="21"/>
       <c r="E63">
         <f t="shared" si="4"/>
         <v>479.9298043804352</v>
@@ -22211,7 +22219,7 @@
         <v>43237</v>
       </c>
       <c r="C64" s="3"/>
-      <c r="D64" s="22"/>
+      <c r="D64" s="21"/>
       <c r="E64">
         <f t="shared" si="4"/>
         <v>432.17422832952724</v>
@@ -22260,7 +22268,7 @@
       <c r="C65" s="3">
         <v>38</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="21">
         <v>288</v>
       </c>
       <c r="E65">
@@ -22309,7 +22317,7 @@
         <v>43239</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="22"/>
+      <c r="D66" s="21"/>
       <c r="E66">
         <f t="shared" si="4"/>
         <v>384.66483445118917</v>
@@ -22356,7 +22364,7 @@
         <v>43240</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="22"/>
+      <c r="D67" s="21"/>
       <c r="E67">
         <f t="shared" si="4"/>
         <v>346.38863116463091</v>
@@ -22403,7 +22411,7 @@
         <v>43241</v>
       </c>
       <c r="C68" s="3"/>
-      <c r="D68" s="22"/>
+      <c r="D68" s="21"/>
       <c r="E68">
         <f t="shared" ref="E68:E120" si="14">(E67*EXP(-1/$O$5)+C68)</f>
         <v>311.92111431577155</v>
@@ -22450,7 +22458,7 @@
         <v>43242</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="22"/>
+      <c r="D69" s="21"/>
       <c r="E69">
         <f t="shared" si="14"/>
         <v>280.88329928400719</v>
@@ -22497,7 +22505,7 @@
         <v>43243</v>
       </c>
       <c r="C70" s="3"/>
-      <c r="D70" s="22"/>
+      <c r="D70" s="21"/>
       <c r="E70">
         <f t="shared" si="14"/>
         <v>252.93391244043784</v>
@@ -22544,7 +22552,7 @@
         <v>43244</v>
       </c>
       <c r="C71" s="3"/>
-      <c r="D71" s="22"/>
+      <c r="D71" s="21"/>
       <c r="E71">
         <f t="shared" si="14"/>
         <v>227.76563870299742</v>
@@ -22593,7 +22601,7 @@
       <c r="C72" s="3">
         <v>41</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="21">
         <v>271</v>
       </c>
       <c r="E72">
@@ -22642,7 +22650,7 @@
         <v>43246</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="22"/>
+      <c r="D73" s="21"/>
       <c r="E73">
         <f t="shared" si="14"/>
         <v>221.61330610440649</v>
@@ -22689,7 +22697,7 @@
         <v>43247</v>
       </c>
       <c r="C74" s="3"/>
-      <c r="D74" s="22"/>
+      <c r="D74" s="21"/>
       <c r="E74">
         <f t="shared" si="14"/>
         <v>199.56159979867999</v>
@@ -22736,7 +22744,7 @@
         <v>43248</v>
       </c>
       <c r="C75" s="3"/>
-      <c r="D75" s="22"/>
+      <c r="D75" s="21"/>
       <c r="E75">
         <f t="shared" si="14"/>
         <v>179.70415592034095</v>
@@ -22783,7 +22791,7 @@
         <v>43249</v>
       </c>
       <c r="C76" s="3"/>
-      <c r="D76" s="22"/>
+      <c r="D76" s="21"/>
       <c r="E76">
         <f t="shared" si="14"/>
         <v>161.82263365106488</v>
@@ -22830,7 +22838,7 @@
         <v>43250</v>
       </c>
       <c r="C77" s="3"/>
-      <c r="D77" s="22"/>
+      <c r="D77" s="21"/>
       <c r="E77">
         <f t="shared" si="14"/>
         <v>145.72041824883951</v>
@@ -22877,7 +22885,7 @@
         <v>43251</v>
       </c>
       <c r="C78" s="3"/>
-      <c r="D78" s="22"/>
+      <c r="D78" s="21"/>
       <c r="E78">
         <f t="shared" si="14"/>
         <v>131.2204591874592</v>
@@ -22926,7 +22934,7 @@
       <c r="C79" s="3">
         <v>39</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D79" s="21">
         <v>256</v>
       </c>
       <c r="E79">
@@ -26401,7 +26409,7 @@
         <v>43175</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="22"/>
+      <c r="D2" s="21"/>
       <c r="E2">
         <v>0</v>
       </c>
@@ -26459,7 +26467,7 @@
         <v>43176</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="22"/>
+      <c r="D3" s="21"/>
       <c r="E3">
         <f>(E2*EXP(-1/$O$5)+C3)</f>
         <v>0</v>
@@ -26530,7 +26538,7 @@
         <v>43177</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="22"/>
+      <c r="D4" s="21"/>
       <c r="E4">
         <f t="shared" ref="E4:E67" si="4">(E3*EXP(-1/$O$5)+C4)</f>
         <v>0</v>
@@ -26602,7 +26610,7 @@
       <c r="C5" s="3">
         <v>83</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="21"/>
       <c r="E5">
         <f t="shared" si="4"/>
         <v>83</v>
@@ -26663,7 +26671,7 @@
         <v>43179</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="22"/>
+      <c r="D6" s="21"/>
       <c r="E6">
         <f t="shared" si="4"/>
         <v>76.784732394070531</v>
@@ -26728,7 +26736,7 @@
         <v>43180</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="22"/>
+      <c r="D7" s="21"/>
       <c r="E7">
         <f t="shared" si="4"/>
         <v>71.034881070229204</v>
@@ -26778,7 +26786,7 @@
       <c r="C8" s="3">
         <v>104.39</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="21"/>
       <c r="E8">
         <f t="shared" si="4"/>
         <v>170.10559438099006</v>
@@ -26833,7 +26841,7 @@
         <f>10+95.04</f>
         <v>105.04</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>229</v>
       </c>
       <c r="E9">
@@ -26883,7 +26891,7 @@
         <v>43183</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="22"/>
+      <c r="D10" s="21"/>
       <c r="E10">
         <f t="shared" si="4"/>
         <v>242.757818757921</v>
@@ -26931,7 +26939,7 @@
         <v>43184</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="22"/>
+      <c r="D11" s="21"/>
       <c r="E11">
         <f t="shared" si="4"/>
         <v>224.57944758909926</v>
@@ -26981,7 +26989,7 @@
       <c r="C12" s="3">
         <v>66.680000000000007</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="21"/>
       <c r="E12">
         <f t="shared" si="4"/>
         <v>274.4423227028575</v>
@@ -27029,7 +27037,7 @@
         <v>43186</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="22"/>
+      <c r="D13" s="21"/>
       <c r="E13">
         <f t="shared" si="4"/>
         <v>253.8913289921212</v>
@@ -27079,7 +27087,7 @@
       <c r="C14" s="3">
         <v>64.510000000000005</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="21"/>
       <c r="E14">
         <f t="shared" si="4"/>
         <v>299.38925004620415</v>
@@ -27127,7 +27135,7 @@
         <v>43188</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="22"/>
+      <c r="D15" s="21"/>
       <c r="E15">
         <f t="shared" si="4"/>
         <v>276.97016200553315</v>
@@ -27178,7 +27186,7 @@
         <f>9+94.84</f>
         <v>103.84</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>243</v>
       </c>
       <c r="E16">
@@ -27228,7 +27236,7 @@
         <v>43190</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="22"/>
+      <c r="D17" s="21"/>
       <c r="E17">
         <f t="shared" si="4"/>
         <v>333.10685698633068</v>
@@ -27276,7 +27284,7 @@
         <v>43191</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="22"/>
+      <c r="D18" s="21"/>
       <c r="E18">
         <f t="shared" si="4"/>
         <v>308.1629020762087</v>
@@ -27326,7 +27334,7 @@
       <c r="C19" s="3">
         <v>66.47</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="21"/>
       <c r="E19">
         <f t="shared" si="4"/>
         <v>351.55681891207041</v>
@@ -27374,7 +27382,7 @@
         <v>43193</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="22"/>
+      <c r="D20" s="21"/>
       <c r="E20">
         <f t="shared" si="4"/>
         <v>325.23128025872336</v>
@@ -27424,7 +27432,7 @@
       <c r="C21" s="3">
         <v>57.24</v>
       </c>
-      <c r="D21" s="22"/>
+      <c r="D21" s="21"/>
       <c r="E21">
         <f t="shared" si="4"/>
         <v>358.11707013068707</v>
@@ -27472,7 +27480,7 @@
         <v>43195</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="22"/>
+      <c r="D22" s="21"/>
       <c r="E22">
         <f t="shared" si="4"/>
         <v>331.30028187630597</v>
@@ -27523,7 +27531,7 @@
         <f>7+62.38</f>
         <v>69.38</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>249</v>
       </c>
       <c r="E23">
@@ -27573,7 +27581,7 @@
         <v>43197</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="22"/>
+      <c r="D24" s="21"/>
       <c r="E24">
         <f t="shared" si="4"/>
         <v>347.72531150743873</v>
@@ -27621,7 +27629,7 @@
         <v>43198</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="22"/>
+      <c r="D25" s="21"/>
       <c r="E25">
         <f t="shared" si="4"/>
         <v>321.68668663546379</v>
@@ -27671,7 +27679,7 @@
       <c r="C26" s="3">
         <v>61.97</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="21"/>
       <c r="E26">
         <f t="shared" si="4"/>
         <v>359.567905398064</v>
@@ -27719,7 +27727,7 @@
         <v>43200</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="22"/>
+      <c r="D27" s="21"/>
       <c r="E27">
         <f t="shared" si="4"/>
         <v>332.64247462032301</v>
@@ -27769,7 +27777,7 @@
       <c r="C28" s="3">
         <v>60.25</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="21"/>
       <c r="E28">
         <f t="shared" si="4"/>
         <v>367.98329393521567</v>
@@ -27817,7 +27825,7 @@
         <v>43202</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="22"/>
+      <c r="D29" s="21"/>
       <c r="E29">
         <f t="shared" si="4"/>
         <v>340.42769578679673</v>
@@ -27868,7 +27876,7 @@
         <f>8+76.75</f>
         <v>84.75</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>253</v>
       </c>
       <c r="E30">
@@ -27918,7 +27926,7 @@
         <v>43204</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="22"/>
+      <c r="D31" s="21"/>
       <c r="E31">
         <f t="shared" si="4"/>
         <v>369.75598739306929</v>
@@ -27966,7 +27974,7 @@
         <v>43205</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="22"/>
+      <c r="D32" s="21"/>
       <c r="E32">
         <f t="shared" si="4"/>
         <v>342.06764509737519</v>
@@ -28016,7 +28024,7 @@
       <c r="C33" s="3">
         <v>55.35</v>
       </c>
-      <c r="D33" s="22"/>
+      <c r="D33" s="21"/>
       <c r="E33">
         <f t="shared" si="4"/>
         <v>371.80268180086563</v>
@@ -28064,7 +28072,7 @@
         <v>43207</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="22"/>
+      <c r="D34" s="21"/>
       <c r="E34">
         <f t="shared" si="4"/>
         <v>343.96107741538822</v>
@@ -28114,7 +28122,7 @@
       <c r="C35" s="3">
         <v>54.42</v>
       </c>
-      <c r="D35" s="22"/>
+      <c r="D35" s="21"/>
       <c r="E35">
         <f t="shared" si="4"/>
         <v>372.62432871465978</v>
@@ -28162,7 +28170,7 @@
         <v>43209</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="22"/>
+      <c r="D36" s="21"/>
       <c r="E36">
         <f t="shared" si="4"/>
         <v>344.72119715512434</v>
@@ -28213,7 +28221,7 @@
         <f>8+77.41</f>
         <v>85.41</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="21">
         <v>272</v>
       </c>
       <c r="E37">
@@ -28263,7 +28271,7 @@
         <v>43211</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="22"/>
+      <c r="D38" s="21"/>
       <c r="E38">
         <f t="shared" si="4"/>
         <v>374.04112332625124</v>
@@ -28311,7 +28319,7 @@
         <v>43212</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="22"/>
+      <c r="D39" s="21"/>
       <c r="E39">
         <f t="shared" si="4"/>
         <v>346.03189830100882</v>
@@ -28361,7 +28369,7 @@
       <c r="C40" s="3">
         <v>64.55</v>
       </c>
-      <c r="D40" s="22"/>
+      <c r="D40" s="21"/>
       <c r="E40">
         <f t="shared" si="4"/>
         <v>384.67008085367701</v>
@@ -28409,7 +28417,7 @@
         <v>43214</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="22"/>
+      <c r="D41" s="21"/>
       <c r="E41">
         <f t="shared" si="4"/>
         <v>355.86493034162726</v>
@@ -28459,7 +28467,7 @@
       <c r="C42" s="3">
         <v>64.87</v>
       </c>
-      <c r="D42" s="22"/>
+      <c r="D42" s="21"/>
       <c r="E42">
         <f t="shared" si="4"/>
         <v>394.086788490559</v>
@@ -28507,7 +28515,7 @@
         <v>43216</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="22"/>
+      <c r="D43" s="21"/>
       <c r="E43">
         <f t="shared" si="4"/>
         <v>364.57648908778611</v>
@@ -28558,7 +28566,7 @@
         <f>7+73.81</f>
         <v>80.81</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="21">
         <v>281</v>
       </c>
       <c r="E44">
@@ -28608,7 +28616,7 @@
         <v>43218</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="22"/>
+      <c r="D45" s="21"/>
       <c r="E45">
         <f t="shared" si="4"/>
         <v>386.77857551948722</v>
@@ -28656,7 +28664,7 @@
         <v>43219</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="22"/>
+      <c r="D46" s="21"/>
       <c r="E46">
         <f t="shared" si="4"/>
         <v>357.81553514486291</v>
@@ -28706,7 +28714,7 @@
       <c r="C47" s="3">
         <v>59.79</v>
       </c>
-      <c r="D47" s="22"/>
+      <c r="D47" s="21"/>
       <c r="E47">
         <f t="shared" si="4"/>
         <v>390.81132665710163</v>
@@ -28754,7 +28762,7 @@
         <v>43221</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="22"/>
+      <c r="D48" s="21"/>
       <c r="E48">
         <f t="shared" si="4"/>
         <v>361.54630281852081</v>
@@ -28804,7 +28812,7 @@
       <c r="C49" s="3">
         <v>59.22</v>
       </c>
-      <c r="D49" s="22"/>
+      <c r="D49" s="21"/>
       <c r="E49">
         <f t="shared" si="4"/>
         <v>393.6927242166953</v>
@@ -28852,7 +28860,7 @@
         <v>43223</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="22"/>
+      <c r="D50" s="21"/>
       <c r="E50">
         <f t="shared" si="4"/>
         <v>364.21193342736814</v>
@@ -28903,7 +28911,7 @@
         <f>8+78.2</f>
         <v>86.2</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="21">
         <v>277</v>
       </c>
       <c r="E51">
@@ -28953,7 +28961,7 @@
         <v>43225</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="22"/>
+      <c r="D52" s="21"/>
       <c r="E52">
         <f t="shared" si="4"/>
         <v>391.45295551494223</v>
@@ -29001,7 +29009,7 @@
         <v>43226</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="22"/>
+      <c r="D53" s="21"/>
       <c r="E53">
         <f t="shared" si="4"/>
         <v>362.13988474798595</v>
@@ -29051,7 +29059,7 @@
       <c r="C54" s="3">
         <v>55.03</v>
       </c>
-      <c r="D54" s="22"/>
+      <c r="D54" s="21"/>
       <c r="E54">
         <f t="shared" si="4"/>
         <v>390.05185710353783</v>
@@ -29099,7 +29107,7 @@
         <v>43228</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="22"/>
+      <c r="D55" s="21"/>
       <c r="E55">
         <f t="shared" si="4"/>
         <v>360.84370442777578</v>
@@ -29149,7 +29157,7 @@
       <c r="C56" s="3">
         <v>66.319999999999993</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="D56" s="21"/>
       <c r="E56">
         <f t="shared" si="4"/>
         <v>400.14273832014271</v>
@@ -29197,7 +29205,7 @@
         <v>43230</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="22"/>
+      <c r="D57" s="21"/>
       <c r="E57">
         <f t="shared" si="4"/>
         <v>370.17895278726201</v>
@@ -29248,7 +29256,7 @@
         <f>8+69.42</f>
         <v>77.42</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="21">
         <v>288</v>
       </c>
       <c r="E58">
@@ -29298,7 +29306,7 @@
         <v>43232</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="22"/>
+      <c r="D59" s="21"/>
       <c r="E59">
         <f t="shared" si="4"/>
         <v>388.43725142041069</v>
@@ -29346,7 +29354,7 @@
         <v>43233</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="22"/>
+      <c r="D60" s="21"/>
       <c r="E60">
         <f t="shared" si="4"/>
         <v>359.35000484583765</v>
@@ -29394,7 +29402,7 @@
         <v>43234</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="22"/>
+      <c r="D61" s="21"/>
       <c r="E61">
         <f t="shared" si="4"/>
         <v>332.44089105898303</v>
@@ -29442,7 +29450,7 @@
         <v>43235</v>
       </c>
       <c r="C62" s="3"/>
-      <c r="D62" s="22"/>
+      <c r="D62" s="21"/>
       <c r="E62">
         <f t="shared" si="4"/>
         <v>307.54680550373934</v>
@@ -29490,7 +29498,7 @@
         <v>43236</v>
       </c>
       <c r="C63" s="3"/>
-      <c r="D63" s="22"/>
+      <c r="D63" s="21"/>
       <c r="E63">
         <f t="shared" si="4"/>
         <v>284.5168573404323</v>
@@ -29538,7 +29546,7 @@
         <v>43237</v>
       </c>
       <c r="C64" s="3"/>
-      <c r="D64" s="22"/>
+      <c r="D64" s="21"/>
       <c r="E64">
         <f t="shared" si="4"/>
         <v>263.21145484924136</v>
@@ -29588,7 +29596,7 @@
       <c r="C65" s="3">
         <v>8</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="21">
         <v>288</v>
       </c>
       <c r="E65">
@@ -29638,7 +29646,7 @@
         <v>43239</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="22"/>
+      <c r="D66" s="21"/>
       <c r="E66">
         <f t="shared" si="4"/>
         <v>232.66834036976417</v>
@@ -29686,7 +29694,7 @@
         <v>43240</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="22"/>
+      <c r="D67" s="21"/>
       <c r="E67">
         <f t="shared" si="4"/>
         <v>215.24549701041997</v>
@@ -29734,7 +29742,7 @@
         <v>43241</v>
       </c>
       <c r="C68" s="3"/>
-      <c r="D68" s="22"/>
+      <c r="D68" s="21"/>
       <c r="E68">
         <f t="shared" ref="E68:E131" si="14">(E67*EXP(-1/$O$5)+C68)</f>
         <v>199.12732393944341</v>
@@ -29782,7 +29790,7 @@
         <v>43242</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="22"/>
+      <c r="D69" s="21"/>
       <c r="E69">
         <f t="shared" si="14"/>
         <v>184.21612386792236</v>
@@ -29830,7 +29838,7 @@
         <v>43243</v>
       </c>
       <c r="C70" s="3"/>
-      <c r="D70" s="22"/>
+      <c r="D70" s="21"/>
       <c r="E70">
         <f t="shared" si="14"/>
         <v>170.42151534784779</v>
@@ -29878,7 +29886,7 @@
         <v>43244</v>
       </c>
       <c r="C71" s="3"/>
-      <c r="D71" s="22"/>
+      <c r="D71" s="21"/>
       <c r="E71">
         <f t="shared" si="14"/>
         <v>157.65988494188525</v>
@@ -29928,7 +29936,7 @@
       <c r="C72" s="3">
         <v>9</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="21">
         <v>271</v>
       </c>
       <c r="E72">
@@ -29978,7 +29986,7 @@
         <v>43246</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="22"/>
+      <c r="D73" s="21"/>
       <c r="E73">
         <f t="shared" si="14"/>
         <v>143.25799720409003</v>
@@ -30026,7 +30034,7 @@
         <v>43247</v>
       </c>
       <c r="C74" s="3"/>
-      <c r="D74" s="22"/>
+      <c r="D74" s="21"/>
       <c r="E74">
         <f t="shared" si="14"/>
         <v>132.53044552562116</v>
@@ -30074,7 +30082,7 @@
         <v>43248</v>
       </c>
       <c r="C75" s="3"/>
-      <c r="D75" s="22"/>
+      <c r="D75" s="21"/>
       <c r="E75">
         <f t="shared" si="14"/>
         <v>122.60620233435858</v>
@@ -30122,7 +30130,7 @@
         <v>43249</v>
       </c>
       <c r="C76" s="3"/>
-      <c r="D76" s="22"/>
+      <c r="D76" s="21"/>
       <c r="E76">
         <f t="shared" si="14"/>
         <v>113.42511368791553</v>
@@ -30170,7 +30178,7 @@
         <v>43250</v>
       </c>
       <c r="C77" s="3"/>
-      <c r="D77" s="22"/>
+      <c r="D77" s="21"/>
       <c r="E77">
         <f t="shared" si="14"/>
         <v>104.93153013606771</v>
@@ -30218,7 +30226,7 @@
         <v>43251</v>
       </c>
       <c r="C78" s="3"/>
-      <c r="D78" s="22"/>
+      <c r="D78" s="21"/>
       <c r="E78">
         <f t="shared" si="14"/>
         <v>97.073969412027779</v>
@@ -30268,7 +30276,7 @@
       <c r="C79" s="3">
         <v>8</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D79" s="21">
         <v>256</v>
       </c>
       <c r="E79">
@@ -33814,7 +33822,7 @@
         <v>43175</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="22"/>
+      <c r="D2" s="21"/>
       <c r="E2">
         <v>0</v>
       </c>
@@ -33872,7 +33880,7 @@
         <v>43176</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="22"/>
+      <c r="D3" s="21"/>
       <c r="E3">
         <f>(E2*EXP(-1/$O$5)+C3)</f>
         <v>0</v>
@@ -33943,7 +33951,7 @@
         <v>43177</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="22"/>
+      <c r="D4" s="21"/>
       <c r="E4">
         <f t="shared" ref="E4:E67" si="4">(E3*EXP(-1/$O$5)+C4)</f>
         <v>0</v>
@@ -34015,7 +34023,7 @@
       <c r="C5" s="3">
         <v>92</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="21"/>
       <c r="E5">
         <f t="shared" si="4"/>
         <v>92</v>
@@ -34076,7 +34084,7 @@
         <v>43179</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="22"/>
+      <c r="D6" s="21"/>
       <c r="E6">
         <f t="shared" si="4"/>
         <v>84.073826553126054</v>
@@ -34141,7 +34149,7 @@
         <v>43180</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="22"/>
+      <c r="D7" s="21"/>
       <c r="E7">
         <f t="shared" si="4"/>
         <v>76.830525122664397</v>
@@ -34191,7 +34199,7 @@
       <c r="C8" s="3">
         <v>106.6</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="21"/>
       <c r="E8">
         <f t="shared" si="4"/>
         <v>176.81126351248349</v>
@@ -34246,7 +34254,7 @@
         <f>25+103.13</f>
         <v>128.13</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>229</v>
       </c>
       <c r="E9">
@@ -34296,7 +34304,7 @@
         <v>43183</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="22"/>
+      <c r="D10" s="21"/>
       <c r="E10">
         <f t="shared" si="4"/>
         <v>264.74871325562975</v>
@@ -34344,7 +34352,7 @@
         <v>43184</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="22"/>
+      <c r="D11" s="21"/>
       <c r="E11">
         <f t="shared" si="4"/>
         <v>241.93953693931655</v>
@@ -34394,7 +34402,7 @@
       <c r="C12" s="3">
         <v>83.8</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="21"/>
       <c r="E12">
         <f t="shared" si="4"/>
         <v>304.89546374977971</v>
@@ -34442,7 +34450,7 @@
         <v>43186</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="22"/>
+      <c r="D13" s="21"/>
       <c r="E13">
         <f t="shared" si="4"/>
         <v>278.62748191449907</v>
@@ -34492,7 +34500,7 @@
       <c r="C14" s="3">
         <v>78.17</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="21"/>
       <c r="E14">
         <f t="shared" si="4"/>
         <v>332.79259334145502</v>
@@ -34540,7 +34548,7 @@
         <v>43188</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="22"/>
+      <c r="D15" s="21"/>
       <c r="E15">
         <f t="shared" si="4"/>
         <v>304.1211605516794</v>
@@ -34591,7 +34599,7 @@
         <f>23+101.6</f>
         <v>124.6</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>243</v>
       </c>
       <c r="E16">
@@ -34641,7 +34649,7 @@
         <v>43190</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="22"/>
+      <c r="D17" s="21"/>
       <c r="E17">
         <f t="shared" si="4"/>
         <v>367.84116581107793</v>
@@ -34689,7 +34697,7 @@
         <v>43191</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="22"/>
+      <c r="D18" s="21"/>
       <c r="E18">
         <f t="shared" si="4"/>
         <v>336.15015623369834</v>
@@ -34739,7 +34747,7 @@
       <c r="C19" s="3">
         <v>83.7</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="21"/>
       <c r="E19">
         <f t="shared" si="4"/>
         <v>390.88945577171933</v>
@@ -34787,7 +34795,7 @@
         <v>43193</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="22"/>
+      <c r="D20" s="21"/>
       <c r="E20">
         <f t="shared" si="4"/>
         <v>357.21274245649317</v>
@@ -34837,7 +34845,7 @@
       <c r="C21" s="3">
         <v>76.8</v>
       </c>
-      <c r="D21" s="22"/>
+      <c r="D21" s="21"/>
       <c r="E21">
         <f t="shared" si="4"/>
         <v>403.23741469406195</v>
@@ -34885,7 +34893,7 @@
         <v>43195</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="22"/>
+      <c r="D22" s="21"/>
       <c r="E22">
         <f t="shared" si="4"/>
         <v>368.49687459477752</v>
@@ -34936,7 +34944,7 @@
         <f>21+79.97</f>
         <v>100.97</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>249</v>
       </c>
       <c r="E23">
@@ -34986,7 +34994,7 @@
         <v>43197</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="22"/>
+      <c r="D24" s="21"/>
       <c r="E24">
         <f t="shared" si="4"/>
         <v>400.00807226354902</v>
@@ -35034,7 +35042,7 @@
         <v>43198</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="22"/>
+      <c r="D25" s="21"/>
       <c r="E25">
         <f t="shared" si="4"/>
         <v>365.54575312321668</v>
@@ -35084,7 +35092,7 @@
       <c r="C26" s="3">
         <v>79.02</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="21"/>
       <c r="E26">
         <f t="shared" si="4"/>
         <v>413.07250266644735</v>
@@ -35132,7 +35140,7 @@
         <v>43200</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="22"/>
+      <c r="D27" s="21"/>
       <c r="E27">
         <f t="shared" si="4"/>
         <v>377.48462981570214</v>
@@ -35182,7 +35190,7 @@
       <c r="C28" s="3">
         <v>76.22</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="21"/>
       <c r="E28">
         <f t="shared" si="4"/>
         <v>421.18279666952549</v>
@@ -35230,7 +35238,7 @@
         <v>43202</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="22"/>
+      <c r="D29" s="21"/>
       <c r="E29">
         <f t="shared" si="4"/>
         <v>384.89618906906787</v>
@@ -35281,7 +35289,7 @@
         <f>22+89.8</f>
         <v>111.8</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>253</v>
       </c>
       <c r="E30">
@@ -35331,7 +35339,7 @@
         <v>43204</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="22"/>
+      <c r="D31" s="21"/>
       <c r="E31">
         <f t="shared" si="4"/>
         <v>423.60032752748151</v>
@@ -35379,7 +35387,7 @@
         <v>43205</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="22"/>
+      <c r="D32" s="21"/>
       <c r="E32">
         <f t="shared" si="4"/>
         <v>387.10543983035728</v>
@@ -35429,7 +35437,7 @@
       <c r="C33" s="3">
         <v>77.13</v>
       </c>
-      <c r="D33" s="22"/>
+      <c r="D33" s="21"/>
       <c r="E33">
         <f t="shared" si="4"/>
         <v>430.88473484857644</v>
@@ -35477,7 +35485,7 @@
         <v>43207</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="22"/>
+      <c r="D34" s="21"/>
       <c r="E34">
         <f t="shared" si="4"/>
         <v>393.76226589183619</v>
@@ -35527,7 +35535,7 @@
       <c r="C35" s="3">
         <v>73.23</v>
       </c>
-      <c r="D35" s="22"/>
+      <c r="D35" s="21"/>
       <c r="E35">
         <f t="shared" si="4"/>
         <v>433.06804832343636</v>
@@ -35575,7 +35583,7 @@
         <v>43209</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="22"/>
+      <c r="D36" s="21"/>
       <c r="E36">
         <f t="shared" si="4"/>
         <v>395.75747804831963</v>
@@ -35626,7 +35634,7 @@
         <f>22+87.9</f>
         <v>109.9</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="21">
         <v>272</v>
       </c>
       <c r="E37">
@@ -35676,7 +35684,7 @@
         <v>43211</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="22"/>
+      <c r="D38" s="21"/>
       <c r="E38">
         <f t="shared" si="4"/>
         <v>430.93443910719867</v>
@@ -35724,7 +35732,7 @@
         <v>43212</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="22"/>
+      <c r="D39" s="21"/>
       <c r="E39">
         <f t="shared" si="4"/>
         <v>393.80768792681829</v>
@@ -35774,7 +35782,7 @@
       <c r="C40" s="3">
         <v>80.03</v>
       </c>
-      <c r="D40" s="22"/>
+      <c r="D40" s="21"/>
       <c r="E40">
         <f t="shared" si="4"/>
         <v>439.90955706572731</v>
@@ -35822,7 +35830,7 @@
         <v>43214</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="22"/>
+      <c r="D41" s="21"/>
       <c r="E41">
         <f t="shared" si="4"/>
         <v>402.00956304137469</v>
@@ -35872,7 +35880,7 @@
       <c r="C42" s="3">
         <v>81.62</v>
       </c>
-      <c r="D42" s="22"/>
+      <c r="D42" s="21"/>
       <c r="E42">
         <f t="shared" si="4"/>
         <v>448.99480734607101</v>
@@ -35920,7 +35928,7 @@
         <v>43216</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="22"/>
+      <c r="D43" s="21"/>
       <c r="E43">
         <f t="shared" si="4"/>
         <v>410.31208213117202</v>
@@ -35971,7 +35979,7 @@
         <f>21+84.83</f>
         <v>105.83</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="21">
         <v>281</v>
       </c>
       <c r="E44">
@@ -36021,7 +36029,7 @@
         <v>43218</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="22"/>
+      <c r="D45" s="21"/>
       <c r="E45">
         <f t="shared" si="4"/>
         <v>439.36984563509867</v>
@@ -36069,7 +36077,7 @@
         <v>43219</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="22"/>
+      <c r="D46" s="21"/>
       <c r="E46">
         <f t="shared" si="4"/>
         <v>401.5163499412941</v>
@@ -36119,7 +36127,7 @@
       <c r="C47" s="3">
         <v>75.98</v>
       </c>
-      <c r="D47" s="22"/>
+      <c r="D47" s="21"/>
       <c r="E47">
         <f t="shared" si="4"/>
         <v>442.90408655661554</v>
@@ -36167,7 +36175,7 @@
         <v>43221</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="22"/>
+      <c r="D48" s="21"/>
       <c r="E48">
         <f t="shared" si="4"/>
         <v>404.74610166121334</v>
@@ -36217,7 +36225,7 @@
       <c r="C49" s="3">
         <v>74.92</v>
       </c>
-      <c r="D49" s="22"/>
+      <c r="D49" s="21"/>
       <c r="E49">
         <f t="shared" si="4"/>
         <v>444.79558205563893</v>
@@ -36265,7 +36273,7 @@
         <v>43223</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="22"/>
+      <c r="D50" s="21"/>
       <c r="E50">
         <f t="shared" si="4"/>
         <v>406.4746371450276</v>
@@ -36316,7 +36324,7 @@
         <f>22+90.28</f>
         <v>112.28</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="21">
         <v>277</v>
       </c>
       <c r="E51">
@@ -36366,7 +36374,7 @@
         <v>43225</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="22"/>
+      <c r="D52" s="21"/>
       <c r="E52">
         <f t="shared" si="4"/>
         <v>442.05944637262968</v>
@@ -36414,7 +36422,7 @@
         <v>43226</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="22"/>
+      <c r="D53" s="21"/>
       <c r="E53">
         <f t="shared" si="4"/>
         <v>403.97423065764565</v>
@@ -36464,7 +36472,7 @@
       <c r="C54" s="3">
         <v>75.05</v>
       </c>
-      <c r="D54" s="22"/>
+      <c r="D54" s="21"/>
       <c r="E54">
         <f t="shared" si="4"/>
         <v>444.22021087221134</v>
@@ -36512,7 +36520,7 @@
         <v>43228</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="22"/>
+      <c r="D55" s="21"/>
       <c r="E55">
         <f t="shared" si="4"/>
         <v>405.94883652460197</v>
@@ -36562,7 +36570,7 @@
       <c r="C56" s="3">
         <v>81.08</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="D56" s="21"/>
       <c r="E56">
         <f t="shared" si="4"/>
         <v>452.05469642839904</v>
@@ -36610,7 +36618,7 @@
         <v>43230</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="22"/>
+      <c r="D57" s="21"/>
       <c r="E57">
         <f t="shared" si="4"/>
         <v>413.10834934833997</v>
@@ -36661,7 +36669,7 @@
         <f>22+82.57</f>
         <v>104.57</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="21">
         <v>288</v>
       </c>
       <c r="E58">
@@ -36711,7 +36719,7 @@
         <v>43232</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="22"/>
+      <c r="D59" s="21"/>
       <c r="E59">
         <f t="shared" si="4"/>
         <v>440.55360277880925</v>
@@ -36759,7 +36767,7 @@
         <v>43233</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="22"/>
+      <c r="D60" s="21"/>
       <c r="E60">
         <f t="shared" si="4"/>
         <v>402.59812160196094</v>
@@ -36807,7 +36815,7 @@
         <v>43234</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="22"/>
+      <c r="D61" s="21"/>
       <c r="E61">
         <f t="shared" si="4"/>
         <v>367.9126591975828</v>
@@ -36855,7 +36863,7 @@
         <v>43235</v>
       </c>
       <c r="C62" s="3"/>
-      <c r="D62" s="22"/>
+      <c r="D62" s="21"/>
       <c r="E62">
         <f t="shared" si="4"/>
         <v>336.2154901747495</v>
@@ -36903,7 +36911,7 @@
         <v>43236</v>
       </c>
       <c r="C63" s="3"/>
-      <c r="D63" s="22"/>
+      <c r="D63" s="21"/>
       <c r="E63">
         <f t="shared" si="4"/>
         <v>307.24916092854511</v>
@@ -36951,7 +36959,7 @@
         <v>43237</v>
       </c>
       <c r="C64" s="3"/>
-      <c r="D64" s="22"/>
+      <c r="D64" s="21"/>
       <c r="E64">
         <f t="shared" si="4"/>
         <v>280.77839852717409</v>
@@ -37001,7 +37009,7 @@
       <c r="C65" s="3">
         <v>23</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="21">
         <v>288</v>
       </c>
       <c r="E65">
@@ -37051,7 +37059,7 @@
         <v>43239</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="22"/>
+      <c r="D66" s="21"/>
       <c r="E66">
         <f t="shared" si="4"/>
         <v>255.5005414420155</v>
@@ -37099,7 +37107,7 @@
         <v>43240</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="22"/>
+      <c r="D67" s="21"/>
       <c r="E67">
         <f t="shared" si="4"/>
         <v>233.48813266767183</v>
@@ -37147,7 +37155,7 @@
         <v>43241</v>
       </c>
       <c r="C68" s="3"/>
-      <c r="D68" s="22"/>
+      <c r="D68" s="21"/>
       <c r="E68">
         <f t="shared" ref="E68:E131" si="14">(E67*EXP(-1/$O$5)+C68)</f>
         <v>213.37218226212096</v>
@@ -37195,7 +37203,7 @@
         <v>43242</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="22"/>
+      <c r="D69" s="21"/>
       <c r="E69">
         <f t="shared" si="14"/>
         <v>194.98930263877781</v>
@@ -37243,7 +37251,7 @@
         <v>43243</v>
       </c>
       <c r="C70" s="3"/>
-      <c r="D70" s="22"/>
+      <c r="D70" s="21"/>
       <c r="E70">
         <f t="shared" si="14"/>
         <v>178.19018271486536</v>
@@ -37291,7 +37299,7 @@
         <v>43244</v>
       </c>
       <c r="C71" s="3"/>
-      <c r="D71" s="22"/>
+      <c r="D71" s="21"/>
       <c r="E71">
         <f t="shared" si="14"/>
         <v>162.83837516347208</v>
@@ -37341,7 +37349,7 @@
       <c r="C72" s="3">
         <v>24</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="21">
         <v>271</v>
       </c>
       <c r="E72">
@@ -37391,7 +37399,7 @@
         <v>43246</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="22"/>
+      <c r="D73" s="21"/>
       <c r="E73">
         <f t="shared" si="14"/>
         <v>157.92097512180456</v>
@@ -37439,7 +37447,7 @@
         <v>43247</v>
       </c>
       <c r="C74" s="3"/>
-      <c r="D74" s="22"/>
+      <c r="D74" s="21"/>
       <c r="E74">
         <f t="shared" si="14"/>
         <v>144.31544208142535</v>
@@ -37487,7 +37495,7 @@
         <v>43248</v>
       </c>
       <c r="C75" s="3"/>
-      <c r="D75" s="22"/>
+      <c r="D75" s="21"/>
       <c r="E75">
         <f t="shared" si="14"/>
         <v>131.88208094012461</v>
@@ -37535,7 +37543,7 @@
         <v>43249</v>
       </c>
       <c r="C76" s="3"/>
-      <c r="D76" s="22"/>
+      <c r="D76" s="21"/>
       <c r="E76">
         <f t="shared" si="14"/>
         <v>120.51990433071053</v>
@@ -37583,7 +37591,7 @@
         <v>43250</v>
       </c>
       <c r="C77" s="3"/>
-      <c r="D77" s="22"/>
+      <c r="D77" s="21"/>
       <c r="E77">
         <f t="shared" si="14"/>
         <v>110.13662535760329</v>
@@ -37631,7 +37639,7 @@
         <v>43251</v>
       </c>
       <c r="C78" s="3"/>
-      <c r="D78" s="22"/>
+      <c r="D78" s="21"/>
       <c r="E78">
         <f t="shared" si="14"/>
         <v>100.64790801588875</v>
@@ -37681,7 +37689,7 @@
       <c r="C79" s="3">
         <v>23</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D79" s="21">
         <v>256</v>
       </c>
       <c r="E79">
@@ -41227,7 +41235,7 @@
         <v>43175</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="22"/>
+      <c r="D2" s="21"/>
       <c r="E2">
         <v>0</v>
       </c>
@@ -41285,7 +41293,7 @@
         <v>43176</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="22"/>
+      <c r="D3" s="21"/>
       <c r="E3">
         <f>(E2*EXP(-1/$O$5)+C3)</f>
         <v>0</v>
@@ -41356,7 +41364,7 @@
         <v>43177</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="22"/>
+      <c r="D4" s="21"/>
       <c r="E4">
         <f t="shared" ref="E4:E67" si="4">(E3*EXP(-1/$O$5)+C4)</f>
         <v>0</v>
@@ -41428,7 +41436,7 @@
       <c r="C5" s="3">
         <v>315</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="21"/>
       <c r="E5">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -41489,7 +41497,7 @@
         <v>43179</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="22"/>
+      <c r="D6" s="21"/>
       <c r="E6">
         <f t="shared" si="4"/>
         <v>280.11307775091001</v>
@@ -41554,7 +41562,7 @@
         <v>43180</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="22"/>
+      <c r="D7" s="21"/>
       <c r="E7">
         <f t="shared" si="4"/>
         <v>249.08995659392815</v>
@@ -41604,7 +41612,7 @@
       <c r="C8" s="3">
         <v>315</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="21"/>
       <c r="E8">
         <f t="shared" si="4"/>
         <v>536.50271231227237</v>
@@ -41659,7 +41667,7 @@
         <f>50+450</f>
         <v>500</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>229</v>
       </c>
       <c r="E9">
@@ -41709,7 +41717,7 @@
         <v>43183</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="22"/>
+      <c r="D10" s="21"/>
       <c r="E10">
         <f t="shared" si="4"/>
         <v>868.86976570744014</v>
@@ -41757,7 +41765,7 @@
         <v>43184</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="22"/>
+      <c r="D11" s="21"/>
       <c r="E11">
         <f t="shared" si="4"/>
         <v>772.64058487943862</v>
@@ -41807,7 +41815,7 @@
       <c r="C12" s="3">
         <v>225</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="21"/>
       <c r="E12">
         <f t="shared" si="4"/>
         <v>912.06899119315176</v>
@@ -41855,7 +41863,7 @@
         <v>43186</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="22"/>
+      <c r="D13" s="21"/>
       <c r="E13">
         <f t="shared" si="4"/>
         <v>811.05540395009973</v>
@@ -41905,7 +41913,7 @@
       <c r="C14" s="3">
         <v>270</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="21"/>
       <c r="E14">
         <f t="shared" si="4"/>
         <v>991.22928706974608</v>
@@ -41953,7 +41961,7 @@
         <v>43188</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="22"/>
+      <c r="D15" s="21"/>
       <c r="E15">
         <f t="shared" si="4"/>
         <v>881.44852812046634</v>
@@ -42004,7 +42012,7 @@
         <f>44+405</f>
         <v>449</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>243</v>
       </c>
       <c r="E16">
@@ -42054,7 +42062,7 @@
         <v>43190</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="22"/>
+      <c r="D17" s="21"/>
       <c r="E17">
         <f t="shared" si="4"/>
         <v>1096.2880873633887</v>
@@ -42102,7 +42110,7 @@
         <v>43191</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="22"/>
+      <c r="D18" s="21"/>
       <c r="E18">
         <f t="shared" si="4"/>
         <v>974.87184207307098</v>
@@ -42152,7 +42160,7 @@
       <c r="C19" s="3">
         <v>315</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="21"/>
       <c r="E19">
         <f t="shared" si="4"/>
         <v>1181.9027050659906</v>
@@ -42200,7 +42208,7 @@
         <v>43193</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="22"/>
+      <c r="D20" s="21"/>
       <c r="E20">
         <f t="shared" si="4"/>
         <v>1051.0044581528912</v>
@@ -42250,7 +42258,7 @@
       <c r="C21" s="3">
         <v>315</v>
       </c>
-      <c r="D21" s="22"/>
+      <c r="D21" s="21"/>
       <c r="E21">
         <f t="shared" si="4"/>
         <v>1249.6034714385203</v>
@@ -42298,7 +42306,7 @@
         <v>43195</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="22"/>
+      <c r="D22" s="21"/>
       <c r="E22">
         <f t="shared" si="4"/>
         <v>1111.2072201678263</v>
@@ -42349,7 +42357,7 @@
         <f>43+315</f>
         <v>358</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>249</v>
       </c>
       <c r="E23">
@@ -42399,7 +42407,7 @@
         <v>43197</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="22"/>
+      <c r="D24" s="21"/>
       <c r="E24">
         <f t="shared" si="4"/>
         <v>1197.0509208675851</v>
@@ -42447,7 +42455,7 @@
         <v>43198</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="22"/>
+      <c r="D25" s="21"/>
       <c r="E25">
         <f t="shared" si="4"/>
         <v>1064.4749767262867</v>
@@ -42497,7 +42505,7 @@
       <c r="C26" s="3">
         <v>225</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="21"/>
       <c r="E26">
         <f t="shared" si="4"/>
         <v>1171.582101332154</v>
@@ -42545,7 +42553,7 @@
         <v>43200</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="22"/>
+      <c r="D27" s="21"/>
       <c r="E27">
         <f t="shared" si="4"/>
         <v>1041.826883308026</v>
@@ -42595,7 +42603,7 @@
       <c r="C28" s="3">
         <v>315</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="21"/>
       <c r="E28">
         <f t="shared" si="4"/>
         <v>1241.4423325938076</v>
@@ -42643,7 +42651,7 @@
         <v>43202</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="22"/>
+      <c r="D29" s="21"/>
       <c r="E29">
         <f t="shared" si="4"/>
         <v>1103.9499448670488</v>
@@ -42694,7 +42702,7 @@
         <f>48+360</f>
         <v>408</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>253</v>
       </c>
       <c r="E30">
@@ -42744,7 +42752,7 @@
         <v>43204</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="22"/>
+      <c r="D31" s="21"/>
       <c r="E31">
         <f t="shared" si="4"/>
         <v>1235.7745383211868</v>
@@ -42792,7 +42800,7 @@
         <v>43205</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="22"/>
+      <c r="D32" s="21"/>
       <c r="E32">
         <f t="shared" si="4"/>
         <v>1098.9098709058969</v>
@@ -42842,7 +42850,7 @@
       <c r="C33" s="3">
         <v>270</v>
       </c>
-      <c r="D33" s="22"/>
+      <c r="D33" s="21"/>
       <c r="E33">
         <f t="shared" si="4"/>
         <v>1247.2032574930349</v>
@@ -42890,7 +42898,7 @@
         <v>43207</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="22"/>
+      <c r="D34" s="21"/>
       <c r="E34">
         <f t="shared" si="4"/>
         <v>1109.072835039158</v>
@@ -42940,7 +42948,7 @@
       <c r="C35" s="3">
         <v>270</v>
       </c>
-      <c r="D35" s="22"/>
+      <c r="D35" s="21"/>
       <c r="E35">
         <f t="shared" si="4"/>
         <v>1256.2406516595106</v>
@@ -42988,7 +42996,7 @@
         <v>43209</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="22"/>
+      <c r="D36" s="21"/>
       <c r="E36">
         <f t="shared" si="4"/>
         <v>1117.1093185147759</v>
@@ -43039,7 +43047,7 @@
         <f>47+360</f>
         <v>407</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="21">
         <v>272</v>
       </c>
       <c r="E37">
@@ -43089,7 +43097,7 @@
         <v>43211</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="22"/>
+      <c r="D38" s="21"/>
       <c r="E38">
         <f t="shared" si="4"/>
         <v>1245.2912200131382</v>
@@ -43137,7 +43145,7 @@
         <v>43212</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="22"/>
+      <c r="D39" s="21"/>
       <c r="E39">
         <f t="shared" si="4"/>
         <v>1107.372559790685</v>
@@ -43187,7 +43195,7 @@
       <c r="C40" s="3">
         <v>315</v>
       </c>
-      <c r="D40" s="22"/>
+      <c r="D40" s="21"/>
       <c r="E40">
         <f t="shared" si="4"/>
         <v>1299.7286855234047</v>
@@ -43235,7 +43243,7 @@
         <v>43214</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="22"/>
+      <c r="D41" s="21"/>
       <c r="E41">
         <f t="shared" si="4"/>
         <v>1155.7809598193828</v>
@@ -43285,7 +43293,7 @@
       <c r="C42" s="3">
         <v>180</v>
       </c>
-      <c r="D42" s="22"/>
+      <c r="D42" s="21"/>
       <c r="E42">
         <f t="shared" si="4"/>
         <v>1207.7757519393911</v>
@@ -43333,7 +43341,7 @@
         <v>43216</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="22"/>
+      <c r="D43" s="21"/>
       <c r="E43">
         <f t="shared" si="4"/>
         <v>1074.0120098687698</v>
@@ -43384,7 +43392,7 @@
         <f>46+360</f>
         <v>406</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="21">
         <v>281</v>
       </c>
       <c r="E44">
@@ -43434,7 +43442,7 @@
         <v>43218</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="22"/>
+      <c r="D45" s="21"/>
       <c r="E45">
         <f t="shared" si="4"/>
         <v>1210.3222682109172</v>
@@ -43482,7 +43490,7 @@
         <v>43219</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="22"/>
+      <c r="D46" s="21"/>
       <c r="E46">
         <f t="shared" si="4"/>
         <v>1076.2764940286427</v>
@@ -43532,7 +43540,7 @@
       <c r="C47" s="3">
         <v>270</v>
       </c>
-      <c r="D47" s="22"/>
+      <c r="D47" s="21"/>
       <c r="E47">
         <f t="shared" si="4"/>
         <v>1227.0765754073716</v>
@@ -43580,7 +43588,7 @@
         <v>43221</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="22"/>
+      <c r="D48" s="21"/>
       <c r="E48">
         <f t="shared" si="4"/>
         <v>1091.1752259473189</v>
@@ -43630,7 +43638,7 @@
       <c r="C49" s="3">
         <v>270</v>
       </c>
-      <c r="D49" s="22"/>
+      <c r="D49" s="21"/>
       <c r="E49">
         <f t="shared" si="4"/>
         <v>1240.3252409703118</v>
@@ -43678,7 +43686,7 @@
         <v>43223</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="22"/>
+      <c r="D50" s="21"/>
       <c r="E50">
         <f t="shared" si="4"/>
         <v>1102.9565735248673</v>
@@ -43729,7 +43737,7 @@
         <f>46+360</f>
         <v>406</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="21">
         <v>277</v>
       </c>
       <c r="E51">
@@ -43779,7 +43787,7 @@
         <v>43225</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="22"/>
+      <c r="D52" s="21"/>
       <c r="E52">
         <f t="shared" si="4"/>
         <v>1233.2105225116393</v>
@@ -43827,7 +43835,7 @@
         <v>43226</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="22"/>
+      <c r="D53" s="21"/>
       <c r="E53">
         <f t="shared" si="4"/>
         <v>1096.6298253191849</v>
@@ -43877,7 +43885,7 @@
       <c r="C54" s="3">
         <v>270</v>
       </c>
-      <c r="D54" s="22"/>
+      <c r="D54" s="21"/>
       <c r="E54">
         <f t="shared" si="4"/>
         <v>1245.1757318209516</v>
@@ -43925,7 +43933,7 @@
         <v>43228</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="22"/>
+      <c r="D55" s="21"/>
       <c r="E55">
         <f t="shared" si="4"/>
         <v>1107.2698621622492</v>
@@ -43975,7 +43983,7 @@
       <c r="C56" s="3">
         <v>315</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="D56" s="21"/>
       <c r="E56">
         <f t="shared" si="4"/>
         <v>1299.6373618764874</v>
@@ -44023,7 +44031,7 @@
         <v>43230</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="22"/>
+      <c r="D57" s="21"/>
       <c r="E57">
         <f t="shared" si="4"/>
         <v>1155.6997504612575</v>
@@ -44074,7 +44082,7 @@
         <f>46+405</f>
         <v>451</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="21">
         <v>288</v>
       </c>
       <c r="E58">
@@ -44124,7 +44132,7 @@
         <v>43232</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="22"/>
+      <c r="D59" s="21"/>
       <c r="E59">
         <f t="shared" si="4"/>
         <v>1314.9339642656148</v>
@@ -44172,7 +44180,7 @@
         <v>43233</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="22"/>
+      <c r="D60" s="21"/>
       <c r="E60">
         <f t="shared" si="4"/>
         <v>1169.3022214909413</v>
@@ -44220,7 +44228,7 @@
         <v>43234</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="22"/>
+      <c r="D61" s="21"/>
       <c r="E61">
         <f t="shared" si="4"/>
         <v>1039.7995050247741</v>
@@ -44268,7 +44276,7 @@
         <v>43235</v>
       </c>
       <c r="C62" s="3"/>
-      <c r="D62" s="22"/>
+      <c r="D62" s="21"/>
       <c r="E62">
         <f t="shared" si="4"/>
         <v>924.6394907821026</v>
@@ -44316,7 +44324,7 @@
         <v>43236</v>
       </c>
       <c r="C63" s="3"/>
-      <c r="D63" s="22"/>
+      <c r="D63" s="21"/>
       <c r="E63">
         <f t="shared" si="4"/>
         <v>822.2336938825681</v>
@@ -44364,7 +44372,7 @@
         <v>43237</v>
       </c>
       <c r="C64" s="3"/>
-      <c r="D64" s="22"/>
+      <c r="D64" s="21"/>
       <c r="E64">
         <f t="shared" si="4"/>
         <v>731.16955753633579</v>
@@ -44414,7 +44422,7 @@
       <c r="C65" s="3">
         <v>46</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="21">
         <v>288</v>
       </c>
       <c r="E65">
@@ -44464,7 +44472,7 @@
         <v>43239</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="22"/>
+      <c r="D66" s="21"/>
       <c r="E66">
         <f t="shared" si="4"/>
         <v>619.08633309863296</v>
@@ -44512,7 +44520,7 @@
         <v>43240</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="22"/>
+      <c r="D67" s="21"/>
       <c r="E67">
         <f t="shared" si="4"/>
         <v>550.52120050089889</v>
@@ -44560,7 +44568,7 @@
         <v>43241</v>
       </c>
       <c r="C68" s="3"/>
-      <c r="D68" s="22"/>
+      <c r="D68" s="21"/>
       <c r="E68">
         <f t="shared" ref="E68:E131" si="14">(E67*EXP(-1/$O$5)+C68)</f>
         <v>489.54980266486547</v>
@@ -44608,7 +44616,7 @@
         <v>43242</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="22"/>
+      <c r="D69" s="21"/>
       <c r="E69">
         <f t="shared" si="14"/>
         <v>435.33111725970201</v>
@@ -44656,7 +44664,7 @@
         <v>43243</v>
       </c>
       <c r="C70" s="3"/>
-      <c r="D70" s="22"/>
+      <c r="D70" s="21"/>
       <c r="E70">
         <f t="shared" si="14"/>
         <v>387.1172669725633</v>
@@ -44704,7 +44712,7 @@
         <v>43244</v>
       </c>
       <c r="C71" s="3"/>
-      <c r="D71" s="22"/>
+      <c r="D71" s="21"/>
       <c r="E71">
         <f t="shared" si="14"/>
         <v>344.2432034990648</v>
@@ -44754,7 +44762,7 @@
       <c r="C72" s="3">
         <v>47</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="21">
         <v>271</v>
       </c>
       <c r="E72">
@@ -44804,7 +44812,7 @@
         <v>43246</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="22"/>
+      <c r="D73" s="21"/>
       <c r="E73">
         <f t="shared" si="14"/>
         <v>314.00901356072887</v>
@@ -44852,7 +44860,7 @@
         <v>43247</v>
       </c>
       <c r="C74" s="3"/>
-      <c r="D74" s="22"/>
+      <c r="D74" s="21"/>
       <c r="E74">
         <f t="shared" si="14"/>
         <v>279.23184517467621</v>
@@ -44900,7 +44908,7 @@
         <v>43248</v>
       </c>
       <c r="C75" s="3"/>
-      <c r="D75" s="22"/>
+      <c r="D75" s="21"/>
       <c r="E75">
         <f t="shared" si="14"/>
         <v>248.30632240617192</v>
@@ -44948,7 +44956,7 @@
         <v>43249</v>
       </c>
       <c r="C76" s="3"/>
-      <c r="D76" s="22"/>
+      <c r="D76" s="21"/>
       <c r="E76">
         <f t="shared" si="14"/>
         <v>220.80586728318275</v>
@@ -44996,7 +45004,7 @@
         <v>43250</v>
       </c>
       <c r="C77" s="3"/>
-      <c r="D77" s="22"/>
+      <c r="D77" s="21"/>
       <c r="E77">
         <f t="shared" si="14"/>
         <v>196.35114625444854</v>
@@ -45044,7 +45052,7 @@
         <v>43251</v>
       </c>
       <c r="C78" s="3"/>
-      <c r="D78" s="22"/>
+      <c r="D78" s="21"/>
       <c r="E78">
         <f t="shared" si="14"/>
         <v>174.60483776905605</v>
@@ -45094,7 +45102,7 @@
       <c r="C79" s="3">
         <v>48</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D79" s="21">
         <v>256</v>
       </c>
       <c r="E79">
@@ -48557,7 +48565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y150"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -48639,7 +48647,7 @@
         <f>Edwards!B2</f>
         <v>43175</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="3"/>
       <c r="E2">
         <v>0</v>
@@ -48697,7 +48705,7 @@
         <f>Edwards!B3</f>
         <v>43176</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="3"/>
       <c r="E3">
         <f>(E2*EXP(-1/$O$5)+C3)</f>
@@ -48768,7 +48776,7 @@
         <f>Edwards!B4</f>
         <v>43177</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="3"/>
       <c r="E4">
         <f t="shared" ref="E4:E67" si="4">(E3*EXP(-1/$O$5)+C4)</f>
@@ -48838,7 +48846,7 @@
         <f>Edwards!B5</f>
         <v>43178</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <v>51.7</v>
       </c>
       <c r="D5" s="3"/>
@@ -48901,7 +48909,7 @@
         <f>Edwards!B6</f>
         <v>43179</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="3"/>
       <c r="E6">
         <f t="shared" si="4"/>
@@ -48966,7 +48974,7 @@
         <f>Edwards!B7</f>
         <v>43180</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="3"/>
       <c r="E7">
         <f t="shared" si="4"/>
@@ -49014,7 +49022,7 @@
         <f>Edwards!B8</f>
         <v>43181</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>51.7</v>
       </c>
       <c r="D8" s="3"/>
@@ -49068,7 +49076,7 @@
         <f>Edwards!B9</f>
         <v>43182</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <f>11+51.7</f>
         <v>62.7</v>
       </c>
@@ -49121,7 +49129,7 @@
         <f>Edwards!B10</f>
         <v>43183</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="3"/>
       <c r="E10">
         <f t="shared" si="4"/>
@@ -49169,7 +49177,7 @@
         <f>Edwards!B11</f>
         <v>43184</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="3"/>
       <c r="E11">
         <f t="shared" si="4"/>
@@ -49217,7 +49225,7 @@
         <f>Edwards!B12</f>
         <v>43185</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>51.7</v>
       </c>
       <c r="D12" s="3"/>
@@ -49267,7 +49275,7 @@
         <f>Edwards!B13</f>
         <v>43186</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="3"/>
       <c r="E13">
         <f t="shared" si="4"/>
@@ -49315,7 +49323,7 @@
         <f>Edwards!B14</f>
         <v>43187</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>51.7</v>
       </c>
       <c r="D14" s="3"/>
@@ -49365,7 +49373,7 @@
         <f>Edwards!B15</f>
         <v>43188</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="3"/>
       <c r="E15">
         <f t="shared" si="4"/>
@@ -49413,7 +49421,7 @@
         <f>Edwards!B16</f>
         <v>43189</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <f>12+51.7</f>
         <v>63.7</v>
       </c>
@@ -49466,7 +49474,7 @@
         <f>Edwards!B17</f>
         <v>43190</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="3"/>
       <c r="E17">
         <f t="shared" si="4"/>
@@ -49514,7 +49522,7 @@
         <f>Edwards!B18</f>
         <v>43191</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="3"/>
       <c r="E18">
         <f t="shared" si="4"/>
@@ -49562,7 +49570,7 @@
         <f>Edwards!B19</f>
         <v>43192</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="22">
         <v>51.7</v>
       </c>
       <c r="D19" s="3"/>
@@ -49612,7 +49620,7 @@
         <f>Edwards!B20</f>
         <v>43193</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="3"/>
       <c r="E20">
         <f t="shared" si="4"/>
@@ -49660,7 +49668,7 @@
         <f>Edwards!B21</f>
         <v>43194</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="22">
         <v>51.7</v>
       </c>
       <c r="D21" s="3"/>
@@ -49710,7 +49718,7 @@
         <f>Edwards!B22</f>
         <v>43195</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="3"/>
       <c r="E22">
         <f t="shared" si="4"/>
@@ -49758,7 +49766,7 @@
         <f>Edwards!B23</f>
         <v>43196</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <f>12+51.7</f>
         <v>63.7</v>
       </c>
@@ -49811,7 +49819,7 @@
         <f>Edwards!B24</f>
         <v>43197</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="3"/>
       <c r="E24">
         <f t="shared" si="4"/>
@@ -49859,7 +49867,7 @@
         <f>Edwards!B25</f>
         <v>43198</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="3"/>
       <c r="E25">
         <f t="shared" si="4"/>
@@ -49907,7 +49915,7 @@
         <f>Edwards!B26</f>
         <v>43199</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="22">
         <v>51.7</v>
       </c>
       <c r="D26" s="3"/>
@@ -49957,7 +49965,7 @@
         <f>Edwards!B27</f>
         <v>43200</v>
       </c>
-      <c r="C27" s="22"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="3"/>
       <c r="E27">
         <f t="shared" si="4"/>
@@ -50005,7 +50013,7 @@
         <f>Edwards!B28</f>
         <v>43201</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="22">
         <v>51.7</v>
       </c>
       <c r="D28" s="3"/>
@@ -50055,7 +50063,7 @@
         <f>Edwards!B29</f>
         <v>43202</v>
       </c>
-      <c r="C29" s="22"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="3"/>
       <c r="E29">
         <f t="shared" si="4"/>
@@ -50103,7 +50111,7 @@
         <f>Edwards!B30</f>
         <v>43203</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="22">
         <f>13+51.7</f>
         <v>64.7</v>
       </c>
@@ -50156,7 +50164,7 @@
         <f>Edwards!B31</f>
         <v>43204</v>
       </c>
-      <c r="C31" s="22"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="3"/>
       <c r="E31">
         <f t="shared" si="4"/>
@@ -50204,7 +50212,7 @@
         <f>Edwards!B32</f>
         <v>43205</v>
       </c>
-      <c r="C32" s="22"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="3"/>
       <c r="E32">
         <f t="shared" si="4"/>
@@ -50252,7 +50260,7 @@
         <f>Edwards!B33</f>
         <v>43206</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="22">
         <v>51.7</v>
       </c>
       <c r="D33" s="3"/>
@@ -50302,7 +50310,7 @@
         <f>Edwards!B34</f>
         <v>43207</v>
       </c>
-      <c r="C34" s="22"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="3"/>
       <c r="E34">
         <f t="shared" si="4"/>
@@ -50350,7 +50358,7 @@
         <f>Edwards!B35</f>
         <v>43208</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="22">
         <v>51.7</v>
       </c>
       <c r="D35" s="3"/>
@@ -50400,7 +50408,7 @@
         <f>Edwards!B36</f>
         <v>43209</v>
       </c>
-      <c r="C36" s="22"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="3"/>
       <c r="E36">
         <f t="shared" si="4"/>
@@ -50448,7 +50456,7 @@
         <f>Edwards!B37</f>
         <v>43210</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="22">
         <f>15+51.7</f>
         <v>66.7</v>
       </c>
@@ -50501,7 +50509,7 @@
         <f>Edwards!B38</f>
         <v>43211</v>
       </c>
-      <c r="C38" s="22"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="3"/>
       <c r="E38">
         <f t="shared" si="4"/>
@@ -50549,7 +50557,7 @@
         <f>Edwards!B39</f>
         <v>43212</v>
       </c>
-      <c r="C39" s="22"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="3"/>
       <c r="E39">
         <f t="shared" si="4"/>
@@ -50597,7 +50605,7 @@
         <f>Edwards!B40</f>
         <v>43213</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="22">
         <v>51.7</v>
       </c>
       <c r="D40" s="3"/>
@@ -50647,7 +50655,7 @@
         <f>Edwards!B41</f>
         <v>43214</v>
       </c>
-      <c r="C41" s="22"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="3"/>
       <c r="E41">
         <f t="shared" si="4"/>
@@ -50695,7 +50703,7 @@
         <f>Edwards!B42</f>
         <v>43215</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="22">
         <v>51.7</v>
       </c>
       <c r="D42" s="3"/>
@@ -50745,7 +50753,7 @@
         <f>Edwards!B43</f>
         <v>43216</v>
       </c>
-      <c r="C43" s="22"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="3"/>
       <c r="E43">
         <f t="shared" si="4"/>
@@ -50793,7 +50801,7 @@
         <f>Edwards!B44</f>
         <v>43217</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="22">
         <f>15+51.7</f>
         <v>66.7</v>
       </c>
@@ -50846,7 +50854,7 @@
         <f>Edwards!B45</f>
         <v>43218</v>
       </c>
-      <c r="C45" s="22"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="3"/>
       <c r="E45">
         <f t="shared" si="4"/>
@@ -50894,7 +50902,7 @@
         <f>Edwards!B46</f>
         <v>43219</v>
       </c>
-      <c r="C46" s="22"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="3"/>
       <c r="E46">
         <f t="shared" si="4"/>
@@ -50942,7 +50950,7 @@
         <f>Edwards!B47</f>
         <v>43220</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="22">
         <v>51.7</v>
       </c>
       <c r="D47" s="3"/>
@@ -50992,7 +51000,7 @@
         <f>Edwards!B48</f>
         <v>43221</v>
       </c>
-      <c r="C48" s="22"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="3"/>
       <c r="E48">
         <f t="shared" si="4"/>
@@ -51040,7 +51048,7 @@
         <f>Edwards!B49</f>
         <v>43222</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="22">
         <v>51.7</v>
       </c>
       <c r="D49" s="3"/>
@@ -51090,7 +51098,7 @@
         <f>Edwards!B50</f>
         <v>43223</v>
       </c>
-      <c r="C50" s="24"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="3"/>
       <c r="E50">
         <f t="shared" si="4"/>
@@ -51138,7 +51146,7 @@
         <f>Edwards!B51</f>
         <v>43224</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="22">
         <f>16+51.7</f>
         <v>67.7</v>
       </c>
@@ -51191,7 +51199,7 @@
         <f>Edwards!B52</f>
         <v>43225</v>
       </c>
-      <c r="C52" s="22"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="3"/>
       <c r="E52">
         <f t="shared" si="4"/>
@@ -51239,7 +51247,7 @@
         <f>Edwards!B53</f>
         <v>43226</v>
       </c>
-      <c r="C53" s="22"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="3"/>
       <c r="E53">
         <f t="shared" si="4"/>
@@ -51287,7 +51295,7 @@
         <f>Edwards!B54</f>
         <v>43227</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="22">
         <v>51.7</v>
       </c>
       <c r="D54" s="3"/>
@@ -51337,7 +51345,7 @@
         <f>Edwards!B55</f>
         <v>43228</v>
       </c>
-      <c r="C55" s="22"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="3"/>
       <c r="E55">
         <f t="shared" si="4"/>
@@ -51385,7 +51393,7 @@
         <f>Edwards!B56</f>
         <v>43229</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="22">
         <v>51.7</v>
       </c>
       <c r="D56" s="3"/>
@@ -51435,7 +51443,7 @@
         <f>Edwards!B57</f>
         <v>43230</v>
       </c>
-      <c r="C57" s="22"/>
+      <c r="C57" s="21"/>
       <c r="D57" s="3"/>
       <c r="E57">
         <f t="shared" si="4"/>
@@ -51483,7 +51491,7 @@
         <f>Edwards!B58</f>
         <v>43231</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="22">
         <f>16+51.7</f>
         <v>67.7</v>
       </c>
